--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -411,15 +420,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C7"/>
+  <dimension ref="B1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -448,7 +471,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f>SUBTOTAL(109,MyTable[Amount])</f>

--- a/test.xlsx
+++ b/test.xlsx
@@ -420,20 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:D7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,24 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>NOM: de Tocqueville</t>
+  </si>
+  <si>
+    <t>CLIENT: Padoa</t>
+  </si>
+  <si>
+    <t>MOIS: Test</t>
+  </si>
+  <si>
+    <t>PRENOM: Alexandre</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Totals:</t>
+    <t>Jour</t>
+  </si>
+  <si>
+    <t>Présence</t>
+  </si>
+  <si>
+    <t>Absence</t>
   </si>
 </sst>
 </file>
@@ -64,8 +70,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -85,16 +94,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="MyTable" ref="B3:C7" totalsRowCount="1" headerRowCount="1">
-  <autoFilter ref="B3:C6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="MyTable" displayName="MyTable" ref="B3:E6" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="B3:E6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Date" totalsRowLabel="Totals:"/>
-    <tableColumn id="2" name="Amount" totalsRowFunction="sum"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Date" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Jour" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Présence" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Absence" totalsRowFunction="none"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -420,33 +433,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:E6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" ht="30" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" ht="30" customHeight="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>43666</v>
       </c>
       <c r="C4">
@@ -454,7 +483,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>43667</v>
       </c>
       <c r="C5">
@@ -462,22 +491,20 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>43668</v>
       </c>
       <c r="C6">
         <v>70.1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>SUBTOTAL(109,MyTable[Amount])</f>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
